--- a/va_facility_data_2025-02-20/Manchester VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Manchester%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Manchester VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Manchester%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rf1235a3578fc4d51b2c844c528188787"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R388caf44bf3248908f0e35747d3f53df"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="Rfef456ea473b4ef0a971c249b58fa050"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R5ed6c66b3a6146e5b314fc3d3f54be6f"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R0b4a2c72d7204d08a9c722e4b0dab41b"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R240868e100d34b068b591c7e0746e4a7"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Rb723dc310adb461d9226f299f5338029"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R4bd0ccbd5ce7413eb8c9587818c6930b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Rf36d9bb4e9614e8586dcf080f65348fc"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R8292acd795e14641b42c0e2fab13ef8c"/>
   </x:sheets>
 </x:workbook>
 </file>
